--- a/state_results/Contact_Recreation/TurakinaatMouth_a0ff6059ff.xlsx
+++ b/state_results/Contact_Recreation/TurakinaatMouth_a0ff6059ff.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/TurakinaatMouth_a0ff6059ff.xlsx
+++ b/state_results/Contact_Recreation/TurakinaatMouth_a0ff6059ff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,16 +612,16 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>29</v>
       </c>
       <c r="G2">
-        <v>763.272370153196</v>
+        <v>965.413048899495</v>
       </c>
       <c r="H2">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I2">
         <v>7040</v>
@@ -645,19 +651,19 @@
         <v>5562590</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -674,16 +680,16 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>29</v>
       </c>
       <c r="G3">
-        <v>763.272370153196</v>
+        <v>965.413048899495</v>
       </c>
       <c r="H3">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I3">
         <v>7040</v>
@@ -713,19 +719,19 @@
         <v>5562590</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -742,16 +748,16 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>29</v>
       </c>
       <c r="G4">
-        <v>763.272370153196</v>
+        <v>965.413048899495</v>
       </c>
       <c r="H4">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I4">
         <v>7040</v>
@@ -781,19 +787,19 @@
         <v>5562590</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -810,16 +816,16 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>29</v>
       </c>
       <c r="G5">
-        <v>763.272370153196</v>
+        <v>965.413048899495</v>
       </c>
       <c r="H5">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I5">
         <v>7040</v>
@@ -849,19 +855,19 @@
         <v>5562590</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -878,16 +884,16 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>29</v>
       </c>
       <c r="G6">
-        <v>763.272370153196</v>
+        <v>965.413048899495</v>
       </c>
       <c r="H6">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I6">
         <v>7040</v>
@@ -917,19 +923,19 @@
         <v>5562590</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -946,16 +952,16 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>31.5</v>
       </c>
       <c r="G7">
-        <v>537.393332493157</v>
+        <v>671.275486646762</v>
       </c>
       <c r="H7">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I7">
         <v>4380</v>
@@ -985,19 +991,19 @@
         <v>5562590</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1014,16 +1020,16 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>31.5</v>
       </c>
       <c r="G8">
-        <v>537.393332493157</v>
+        <v>671.275486646762</v>
       </c>
       <c r="H8">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I8">
         <v>4380</v>
@@ -1053,19 +1059,19 @@
         <v>5562590</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1082,16 +1088,16 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>31.5</v>
       </c>
       <c r="G9">
-        <v>537.393332493157</v>
+        <v>671.275486646762</v>
       </c>
       <c r="H9">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I9">
         <v>4380</v>
@@ -1121,19 +1127,19 @@
         <v>5562590</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1150,16 +1156,16 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>31.5</v>
       </c>
       <c r="G10">
-        <v>537.393332493157</v>
+        <v>671.275486646762</v>
       </c>
       <c r="H10">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I10">
         <v>4380</v>
@@ -1189,19 +1195,19 @@
         <v>5562590</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1218,16 +1224,16 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>31.5</v>
       </c>
       <c r="G11">
-        <v>537.393332493157</v>
+        <v>671.275486646762</v>
       </c>
       <c r="H11">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I11">
         <v>4380</v>
@@ -1257,19 +1263,19 @@
         <v>5562590</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1286,16 +1292,16 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>30</v>
       </c>
       <c r="G12">
-        <v>447.646897044525</v>
+        <v>547.749448831232</v>
       </c>
       <c r="H12">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I12">
         <v>1410.2</v>
@@ -1325,19 +1331,19 @@
         <v>5562590</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1354,16 +1360,16 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>30</v>
       </c>
       <c r="G13">
-        <v>447.646897044525</v>
+        <v>547.749448831232</v>
       </c>
       <c r="H13">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I13">
         <v>1410.2</v>
@@ -1393,19 +1399,19 @@
         <v>5562590</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1422,16 +1428,16 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>30</v>
       </c>
       <c r="G14">
-        <v>447.646897044525</v>
+        <v>547.749448831232</v>
       </c>
       <c r="H14">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I14">
         <v>1410.2</v>
@@ -1461,19 +1467,19 @@
         <v>5562590</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1490,16 +1496,16 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>30</v>
       </c>
       <c r="G15">
-        <v>447.646897044525</v>
+        <v>547.749448831232</v>
       </c>
       <c r="H15">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I15">
         <v>1410.2</v>
@@ -1529,19 +1535,19 @@
         <v>5562590</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1558,16 +1564,16 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>30</v>
       </c>
       <c r="G16">
-        <v>447.646897044525</v>
+        <v>547.749448831232</v>
       </c>
       <c r="H16">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I16">
         <v>1410.2</v>
@@ -1597,19 +1603,19 @@
         <v>5562590</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1626,16 +1632,16 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>52</v>
       </c>
       <c r="G17">
-        <v>397.051478080105</v>
+        <v>479.646349463109</v>
       </c>
       <c r="H17">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I17">
         <v>970</v>
@@ -1665,19 +1671,19 @@
         <v>5562590</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1694,16 +1700,16 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F18">
         <v>52</v>
       </c>
       <c r="G18">
-        <v>397.051478080105</v>
+        <v>479.646349463109</v>
       </c>
       <c r="H18">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I18">
         <v>970</v>
@@ -1733,19 +1739,19 @@
         <v>5562590</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1762,16 +1768,16 @@
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19">
         <v>52</v>
       </c>
       <c r="G19">
-        <v>397.051478080105</v>
+        <v>479.646349463109</v>
       </c>
       <c r="H19">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I19">
         <v>970</v>
@@ -1801,19 +1807,19 @@
         <v>5562590</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1830,16 +1836,16 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>52</v>
       </c>
       <c r="G20">
-        <v>397.051478080105</v>
+        <v>479.646349463109</v>
       </c>
       <c r="H20">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I20">
         <v>970</v>
@@ -1869,19 +1875,19 @@
         <v>5562590</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1898,16 +1904,16 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>52</v>
       </c>
       <c r="G21">
-        <v>397.051478080105</v>
+        <v>479.646349463109</v>
       </c>
       <c r="H21">
-        <v>9791.28506365039</v>
+        <v>19695.767751781</v>
       </c>
       <c r="I21">
         <v>970</v>
@@ -1937,19 +1943,19 @@
         <v>5562590</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1966,13 +1972,13 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F22">
         <v>73.5</v>
       </c>
       <c r="G22">
-        <v>368.392895931779</v>
+        <v>368.449051116584</v>
       </c>
       <c r="H22">
         <v>9700</v>
@@ -2005,19 +2011,19 @@
         <v>5562590</v>
       </c>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2034,13 +2040,13 @@
         <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>73.5</v>
       </c>
       <c r="G23">
-        <v>368.392895931779</v>
+        <v>368.449051116584</v>
       </c>
       <c r="H23">
         <v>9700</v>
@@ -2073,19 +2079,19 @@
         <v>5562590</v>
       </c>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2102,13 +2108,13 @@
         <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24">
         <v>73.5</v>
       </c>
       <c r="G24">
-        <v>368.392895931779</v>
+        <v>368.449051116584</v>
       </c>
       <c r="H24">
         <v>9700</v>
@@ -2141,19 +2147,19 @@
         <v>5562590</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2170,13 +2176,13 @@
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F25">
         <v>73.5</v>
       </c>
       <c r="G25">
-        <v>368.392895931779</v>
+        <v>368.449051116584</v>
       </c>
       <c r="H25">
         <v>9700</v>
@@ -2209,19 +2215,19 @@
         <v>5562590</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2238,13 +2244,13 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26">
         <v>73.5</v>
       </c>
       <c r="G26">
-        <v>368.392895931779</v>
+        <v>368.449051116584</v>
       </c>
       <c r="H26">
         <v>9700</v>
@@ -2277,19 +2283,19 @@
         <v>5562590</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2306,16 +2312,16 @@
         <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>116</v>
       </c>
       <c r="G27">
-        <v>612.608675608767</v>
+        <v>640.448452771668</v>
       </c>
       <c r="H27">
-        <v>17084.4271921636</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I27">
         <v>1797.6</v>
@@ -2345,19 +2351,19 @@
         <v>5562590</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2374,16 +2380,16 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <v>116</v>
       </c>
       <c r="G28">
-        <v>612.608675608767</v>
+        <v>640.448452771668</v>
       </c>
       <c r="H28">
-        <v>17084.4271921636</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I28">
         <v>1797.6</v>
@@ -2413,19 +2419,19 @@
         <v>5562590</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2442,16 +2448,16 @@
         <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F29">
         <v>116</v>
       </c>
       <c r="G29">
-        <v>612.608675608767</v>
+        <v>640.448452771668</v>
       </c>
       <c r="H29">
-        <v>17084.4271921636</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I29">
         <v>1797.6</v>
@@ -2481,19 +2487,19 @@
         <v>5562590</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2510,16 +2516,16 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>116</v>
       </c>
       <c r="G30">
-        <v>612.608675608767</v>
+        <v>640.448452771668</v>
       </c>
       <c r="H30">
-        <v>17084.4271921636</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I30">
         <v>1797.6</v>
@@ -2549,19 +2555,19 @@
         <v>5562590</v>
       </c>
       <c r="R30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2578,16 +2584,16 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31">
         <v>116</v>
       </c>
       <c r="G31">
-        <v>612.608675608767</v>
+        <v>640.448452771668</v>
       </c>
       <c r="H31">
-        <v>17084.4271921636</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I31">
         <v>1797.6</v>
@@ -2617,19 +2623,19 @@
         <v>5562590</v>
       </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2646,16 +2652,16 @@
         <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F32">
         <v>201</v>
       </c>
       <c r="G32">
-        <v>1471.21054057692</v>
+        <v>1346.49498898864</v>
       </c>
       <c r="H32">
-        <v>31605.2496324204</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I32">
         <v>7074.5</v>
@@ -2685,19 +2691,19 @@
         <v>5562590</v>
       </c>
       <c r="R32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2714,16 +2720,16 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33">
         <v>201</v>
       </c>
       <c r="G33">
-        <v>1471.21054057692</v>
+        <v>1346.49498898864</v>
       </c>
       <c r="H33">
-        <v>31605.2496324204</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I33">
         <v>7074.5</v>
@@ -2753,19 +2759,19 @@
         <v>5562590</v>
       </c>
       <c r="R33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2782,16 +2788,16 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>201</v>
       </c>
       <c r="G34">
-        <v>1471.21054057692</v>
+        <v>1346.49498898864</v>
       </c>
       <c r="H34">
-        <v>31605.2496324204</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I34">
         <v>7074.5</v>
@@ -2821,19 +2827,19 @@
         <v>5562590</v>
       </c>
       <c r="R34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2850,16 +2856,16 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35">
         <v>201</v>
       </c>
       <c r="G35">
-        <v>1471.21054057692</v>
+        <v>1346.49498898864</v>
       </c>
       <c r="H35">
-        <v>31605.2496324204</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I35">
         <v>7074.5</v>
@@ -2889,19 +2895,19 @@
         <v>5562590</v>
       </c>
       <c r="R35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2918,16 +2924,16 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F36">
         <v>201</v>
       </c>
       <c r="G36">
-        <v>1471.21054057692</v>
+        <v>1346.49498898864</v>
       </c>
       <c r="H36">
-        <v>31605.2496324204</v>
+        <v>20474.3886986458</v>
       </c>
       <c r="I36">
         <v>7074.5</v>
@@ -2957,19 +2963,699 @@
         <v>5562590</v>
       </c>
       <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" t="s">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s">
+        <v>47</v>
+      </c>
+      <c r="V36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>324</v>
+      </c>
+      <c r="G37">
+        <v>1423.02499368432</v>
+      </c>
+      <c r="H37">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I37">
+        <v>7074.5</v>
+      </c>
+      <c r="J37">
+        <v>34.1463414634146</v>
+      </c>
+      <c r="K37">
+        <v>56.9105691056911</v>
+      </c>
+      <c r="L37">
+        <v>332</v>
+      </c>
+      <c r="M37">
+        <v>1011.3</v>
+      </c>
+      <c r="N37">
+        <v>1164.47</v>
+      </c>
+      <c r="O37">
+        <v>4440</v>
+      </c>
+      <c r="P37">
+        <v>1782074</v>
+      </c>
+      <c r="Q37">
+        <v>5562590</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" t="s">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s">
+        <v>47</v>
+      </c>
+      <c r="V37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>324</v>
+      </c>
+      <c r="G38">
+        <v>1423.02499368432</v>
+      </c>
+      <c r="H38">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I38">
+        <v>7074.5</v>
+      </c>
+      <c r="J38">
+        <v>34.1463414634146</v>
+      </c>
+      <c r="K38">
+        <v>56.9105691056911</v>
+      </c>
+      <c r="L38">
+        <v>332</v>
+      </c>
+      <c r="M38">
+        <v>1011.3</v>
+      </c>
+      <c r="N38">
+        <v>1164.47</v>
+      </c>
+      <c r="O38">
+        <v>4440</v>
+      </c>
+      <c r="P38">
+        <v>1782074</v>
+      </c>
+      <c r="Q38">
+        <v>5562590</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <v>324</v>
+      </c>
+      <c r="G39">
+        <v>1423.02499368432</v>
+      </c>
+      <c r="H39">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I39">
+        <v>7074.5</v>
+      </c>
+      <c r="J39">
+        <v>34.1463414634146</v>
+      </c>
+      <c r="K39">
+        <v>56.9105691056911</v>
+      </c>
+      <c r="L39">
+        <v>332</v>
+      </c>
+      <c r="M39">
+        <v>1011.3</v>
+      </c>
+      <c r="N39">
+        <v>1164.47</v>
+      </c>
+      <c r="O39">
+        <v>4440</v>
+      </c>
+      <c r="P39">
+        <v>1782074</v>
+      </c>
+      <c r="Q39">
+        <v>5562590</v>
+      </c>
+      <c r="R39" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>324</v>
+      </c>
+      <c r="G40">
+        <v>1423.02499368432</v>
+      </c>
+      <c r="H40">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I40">
+        <v>7074.5</v>
+      </c>
+      <c r="J40">
+        <v>34.1463414634146</v>
+      </c>
+      <c r="K40">
+        <v>56.9105691056911</v>
+      </c>
+      <c r="L40">
+        <v>332</v>
+      </c>
+      <c r="M40">
+        <v>1011.3</v>
+      </c>
+      <c r="N40">
+        <v>1164.47</v>
+      </c>
+      <c r="O40">
+        <v>4440</v>
+      </c>
+      <c r="P40">
+        <v>1782074</v>
+      </c>
+      <c r="Q40">
+        <v>5562590</v>
+      </c>
+      <c r="R40" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="s">
+        <v>46</v>
+      </c>
+      <c r="U40" t="s">
+        <v>47</v>
+      </c>
+      <c r="V40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41">
+        <v>324</v>
+      </c>
+      <c r="G41">
+        <v>1423.02499368432</v>
+      </c>
+      <c r="H41">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I41">
+        <v>7074.5</v>
+      </c>
+      <c r="J41">
+        <v>34.1463414634146</v>
+      </c>
+      <c r="K41">
+        <v>56.9105691056911</v>
+      </c>
+      <c r="L41">
+        <v>332</v>
+      </c>
+      <c r="M41">
+        <v>1011.3</v>
+      </c>
+      <c r="N41">
+        <v>1164.47</v>
+      </c>
+      <c r="O41">
+        <v>4440</v>
+      </c>
+      <c r="P41">
+        <v>1782074</v>
+      </c>
+      <c r="Q41">
+        <v>5562590</v>
+      </c>
+      <c r="R41" t="s">
+        <v>44</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="S36" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" t="s">
-        <v>45</v>
-      </c>
-      <c r="V36" t="s">
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <v>408</v>
+      </c>
+      <c r="G42">
+        <v>1534.38116316449</v>
+      </c>
+      <c r="H42">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I42">
+        <v>8406.6</v>
+      </c>
+      <c r="J42">
+        <v>39.3700787401575</v>
+      </c>
+      <c r="K42">
+        <v>65.35433070866139</v>
+      </c>
+      <c r="L42">
+        <v>480</v>
+      </c>
+      <c r="M42">
+        <v>1115.3</v>
+      </c>
+      <c r="N42">
+        <v>1448.28</v>
+      </c>
+      <c r="O42">
+        <v>4905.8</v>
+      </c>
+      <c r="P42">
+        <v>1782074</v>
+      </c>
+      <c r="Q42">
+        <v>5562590</v>
+      </c>
+      <c r="R42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="s">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s">
+        <v>47</v>
+      </c>
+      <c r="V42" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43">
+        <v>408</v>
+      </c>
+      <c r="G43">
+        <v>1534.38116316449</v>
+      </c>
+      <c r="H43">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I43">
+        <v>8406.6</v>
+      </c>
+      <c r="J43">
+        <v>39.3700787401575</v>
+      </c>
+      <c r="K43">
+        <v>65.35433070866139</v>
+      </c>
+      <c r="L43">
+        <v>480</v>
+      </c>
+      <c r="M43">
+        <v>1115.3</v>
+      </c>
+      <c r="N43">
+        <v>1448.28</v>
+      </c>
+      <c r="O43">
+        <v>4905.8</v>
+      </c>
+      <c r="P43">
+        <v>1782074</v>
+      </c>
+      <c r="Q43">
+        <v>5562590</v>
+      </c>
+      <c r="R43" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s">
+        <v>47</v>
+      </c>
+      <c r="V43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>408</v>
+      </c>
+      <c r="G44">
+        <v>1534.38116316449</v>
+      </c>
+      <c r="H44">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I44">
+        <v>8406.6</v>
+      </c>
+      <c r="J44">
+        <v>39.3700787401575</v>
+      </c>
+      <c r="K44">
+        <v>65.35433070866139</v>
+      </c>
+      <c r="L44">
+        <v>480</v>
+      </c>
+      <c r="M44">
+        <v>1115.3</v>
+      </c>
+      <c r="N44">
+        <v>1448.28</v>
+      </c>
+      <c r="O44">
+        <v>4905.8</v>
+      </c>
+      <c r="P44">
+        <v>1782074</v>
+      </c>
+      <c r="Q44">
+        <v>5562590</v>
+      </c>
+      <c r="R44" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" t="s">
+        <v>46</v>
+      </c>
+      <c r="U44" t="s">
+        <v>47</v>
+      </c>
+      <c r="V44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>408</v>
+      </c>
+      <c r="G45">
+        <v>1534.38116316449</v>
+      </c>
+      <c r="H45">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I45">
+        <v>8406.6</v>
+      </c>
+      <c r="J45">
+        <v>39.3700787401575</v>
+      </c>
+      <c r="K45">
+        <v>65.35433070866139</v>
+      </c>
+      <c r="L45">
+        <v>480</v>
+      </c>
+      <c r="M45">
+        <v>1115.3</v>
+      </c>
+      <c r="N45">
+        <v>1448.28</v>
+      </c>
+      <c r="O45">
+        <v>4905.8</v>
+      </c>
+      <c r="P45">
+        <v>1782074</v>
+      </c>
+      <c r="Q45">
+        <v>5562590</v>
+      </c>
+      <c r="R45" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" t="s">
+        <v>47</v>
+      </c>
+      <c r="V45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <v>408</v>
+      </c>
+      <c r="G46">
+        <v>1534.38116316449</v>
+      </c>
+      <c r="H46">
+        <v>20474.3886986458</v>
+      </c>
+      <c r="I46">
+        <v>8406.6</v>
+      </c>
+      <c r="J46">
+        <v>39.3700787401575</v>
+      </c>
+      <c r="K46">
+        <v>65.35433070866139</v>
+      </c>
+      <c r="L46">
+        <v>480</v>
+      </c>
+      <c r="M46">
+        <v>1115.3</v>
+      </c>
+      <c r="N46">
+        <v>1448.28</v>
+      </c>
+      <c r="O46">
+        <v>4905.8</v>
+      </c>
+      <c r="P46">
+        <v>1782074</v>
+      </c>
+      <c r="Q46">
+        <v>5562590</v>
+      </c>
+      <c r="R46" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" t="s">
+        <v>46</v>
+      </c>
+      <c r="U46" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
